--- a/biology/Zoologie/Heliophanus_kochii/Heliophanus_kochii.xlsx
+++ b/biology/Zoologie/Heliophanus_kochii/Heliophanus_kochii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliophanus kochii est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliophanus kochii est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Macaronésie, en Afrique du Nord, en Turquie, au Caucase, au Proche-Orient, en Iran et au Kazakhstan[1].
-Elle a été introduite au Canada  et au États-Unis[1] dans l'État de New York[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Macaronésie, en Afrique du Nord, en Turquie, au Caucase, au Proche-Orient, en Iran et au Kazakhstan.
+Elle a été introduite au Canada  et au États-Unis dans l'État de New York.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3,75 mm et la femelle syntype 5 mm[3].
-Les mâles mesurent de 3,2 à 4 mm et les femelles de 4,2 à 5,3 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3,75 mm et la femelle syntype 5 mm.
+Les mâles mesurent de 3,2 à 4 mm et les femelles de 4,2 à 5,3 mm.
 Heliophanus kochii est une saltique de couleur marron clair à noirâtre avec des reflets métallisés. Elle présente quatre points blancs caractéristiques ainsi qu'une fine ligne blanche sur l'abdomen.
 </t>
         </is>
@@ -576,10 +592,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1868.
-Heliophanus albosignatus[5],[6], Heliophanus calcarifer[3], Heliophanus cernuus[3] et Salticus furcatus[7] ont été placées en synonymie par Wesołowska en 1986[8].
+Heliophanus albosignatus Heliophanus calcarifer, Heliophanus cernuus et Salticus furcatus ont été placées en synonymie par Wesołowska en 1986.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ludwig Carl Christian Koch[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ludwig Carl Christian Koch.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1868 : « Monographie des espèces européennes de la famille des attides (Attidae Sundewall. - Saltigradae Latreille). » Annales de la Société Entomologique de France, sér. 4, vol. 8, p. 11-72 &amp; 529-726 (texte intégral).</t>
         </is>
